--- a/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
+++ b/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\petHomeDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\GitHubRepository\pethome\src\main\resources\Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="212">
   <si>
     <t>表名</t>
   </si>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2094,13 +2094,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="17.25">
       <c r="A14" s="4"/>
@@ -2149,7 +2157,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="A3:F12"/>
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2220,118 +2228,120 @@
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="D4" s="6">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="21"/>
       <c r="F4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="7"/>
+        <v>211</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>180</v>
+        <v>209</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="D5" s="6">
         <v>50</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>211</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
-      <c r="A6" s="16" t="s">
-        <v>188</v>
+      <c r="A6" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25">
+      <c r="A7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="6">
-        <v>500</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>75</v>
-      </c>
       <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>186</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
-        <v>211</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
-      <c r="A9" s="4" t="s">
-        <v>209</v>
+      <c r="A9" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>210</v>
+      <c r="C9" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="6">
-        <v>50</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>500</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
-      <c r="A10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>171</v>
+      <c r="A10" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>75</v>
@@ -2339,17 +2349,13 @@
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>173</v>
+      <c r="F10" s="18" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>171</v>
@@ -2360,32 +2366,50 @@
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>184</v>
+      <c r="E11" s="21"/>
+      <c r="F11" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25">
+      <c r="A13" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="G16" s="7"/>
@@ -2405,7 +2429,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
+++ b/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12810" tabRatio="852" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12810" tabRatio="852" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="发布" sheetId="3" r:id="rId1"/>
@@ -2156,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
@@ -3288,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
+++ b/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12810" tabRatio="852" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12810" tabRatio="852" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="发布" sheetId="3" r:id="rId1"/>
@@ -17,15 +17,16 @@
     <sheet name="发布私信" sheetId="11" r:id="rId3"/>
     <sheet name="用户互动" sheetId="6" r:id="rId4"/>
     <sheet name="我的宠卡" sheetId="10" r:id="rId5"/>
-    <sheet name="我的酬金" sheetId="9" r:id="rId6"/>
-    <sheet name="用户认证" sheetId="12" r:id="rId7"/>
+    <sheet name="宠卡相册" sheetId="13" r:id="rId6"/>
+    <sheet name="我的酬金" sheetId="9" r:id="rId7"/>
+    <sheet name="用户认证" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="236">
   <si>
     <t>表名</t>
   </si>
@@ -789,13 +790,108 @@
   <si>
     <t>主题ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPetPhoto</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长主键，相册编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlbumID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlbumName</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>相片名</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>相片路径</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>相面描述</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>设为封面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：是封面；2：不是封面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModify</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlbumDescription</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,6 +993,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -946,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1038,6 +1148,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2646,7 +2759,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2902,12 +3015,22 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="17.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="17.25">
       <c r="A15" s="14"/>
@@ -3025,6 +3148,292 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25">
+      <c r="A4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25">
+      <c r="A5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25">
+      <c r="A6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="19">
+        <v>50</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25">
+      <c r="A7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25">
+      <c r="A9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="19">
+        <v>50</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25">
+      <c r="A10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="19">
+        <v>50</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25">
+      <c r="A11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="19">
+        <v>50</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25">
+      <c r="A12" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25">
+      <c r="A13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.25">
+      <c r="A17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -3284,11 +3693,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
+++ b/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\GitHubRepository\pethome\src\main\resources\Word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\pethome\src\main\resources\Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,15 +18,16 @@
     <sheet name="用户互动" sheetId="6" r:id="rId4"/>
     <sheet name="我的宠卡" sheetId="10" r:id="rId5"/>
     <sheet name="宠卡相册" sheetId="13" r:id="rId6"/>
-    <sheet name="我的酬金" sheetId="9" r:id="rId7"/>
-    <sheet name="用户认证" sheetId="12" r:id="rId8"/>
+    <sheet name="相册详情" sheetId="14" r:id="rId7"/>
+    <sheet name="我的酬金" sheetId="9" r:id="rId8"/>
+    <sheet name="用户认证" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="239">
   <si>
     <t>表名</t>
   </si>
@@ -875,15 +876,27 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>LastModify</t>
+    <t>UserPetAlbum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册描述</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>show</t>
+    <t>权限</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>AlbumDescription</t>
+    <t>1：公开；2：私密</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1143,14 +1156,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,14 +1488,14 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="25" t="s">
@@ -1984,14 +1997,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -2286,14 +2299,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -2560,14 +2573,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -2775,14 +2788,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -3149,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3168,14 +3181,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -3242,7 +3255,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -3254,14 +3267,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="21"/>
-      <c r="F5" s="7" t="s">
-        <v>225</v>
+      <c r="F5" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>91</v>
@@ -3273,107 +3286,57 @@
         <v>50</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="15" t="s">
-        <v>226</v>
+      <c r="F6" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="30" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="17.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
-      <c r="A9" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="19">
-        <v>50</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25">
-      <c r="A10" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="19">
-        <v>50</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25">
-      <c r="A11" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="19">
-        <v>50</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25">
-      <c r="A12" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25">
-      <c r="A13" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="17.25">
       <c r="A14" s="4"/>
@@ -3400,29 +3363,6 @@
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.25">
-      <c r="A17" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="4" t="s">
-        <v>233</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3434,6 +3374,272 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25">
+      <c r="A4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25">
+      <c r="A5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25">
+      <c r="A6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="19">
+        <v>50</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25">
+      <c r="A7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="19">
+        <v>50</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25">
+      <c r="A8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="19">
+        <v>50</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25">
+      <c r="A9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="19">
+        <v>50</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25">
+      <c r="A10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -3454,14 +3660,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -3693,7 +3899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -3714,14 +3920,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -3823,7 +4029,7 @@
       <c r="F6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="32" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3844,7 +4050,7 @@
       <c r="F7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="9" t="s">
@@ -3863,7 +4069,7 @@
       <c r="F8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="9" t="s">
@@ -3882,7 +4088,7 @@
       <c r="F9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="9" t="s">
@@ -3901,7 +4107,7 @@
       <c r="F10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="9" t="s">

--- a/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
+++ b/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12810" tabRatio="852" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12810" tabRatio="852" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="发布" sheetId="3" r:id="rId1"/>
@@ -361,9 +361,6 @@
     <t>UserID</t>
   </si>
   <si>
-    <t>HeadImageUrl</t>
-  </si>
-  <si>
     <t>NickName</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
   </si>
   <si>
     <t>Birthday</t>
-  </si>
-  <si>
-    <t>ContraceptionState</t>
   </si>
   <si>
     <t>ChipNo</t>
@@ -898,6 +892,14 @@
   <si>
     <t>CreateTime</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contraception</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadImgUrl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1489,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -1525,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -1564,21 +1566,21 @@
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
@@ -1607,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -1617,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25">
@@ -1628,7 +1630,7 @@
         <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
@@ -1638,7 +1640,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
@@ -1681,7 +1683,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="6">
         <v>50</v>
@@ -1850,7 +1852,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.25">
       <c r="A21" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>9</v>
@@ -1887,7 +1889,7 @@
     </row>
     <row r="23" spans="1:7" ht="17.25">
       <c r="A23" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>9</v>
@@ -1921,41 +1923,41 @@
     </row>
     <row r="25" spans="1:7" ht="17.25">
       <c r="A25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25">
       <c r="A26" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="18">
@@ -1998,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2065,15 +2067,15 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -2083,15 +2085,15 @@
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -2101,15 +2103,15 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>64</v>
@@ -2119,28 +2121,28 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
@@ -2148,7 +2150,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>64</v>
@@ -2157,7 +2159,7 @@
         <v>500</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
@@ -2165,24 +2167,24 @@
         <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>64</v>
@@ -2192,18 +2194,18 @@
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>64</v>
@@ -2213,15 +2215,15 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>26</v>
@@ -2233,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25">
@@ -2300,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2354,46 +2356,46 @@
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="6">
         <v>50</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -2403,16 +2405,16 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>75</v>
@@ -2422,16 +2424,16 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>75</v>
@@ -2441,13 +2443,13 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>91</v>
@@ -2464,7 +2466,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
@@ -2476,15 +2478,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>75</v>
@@ -2494,18 +2496,18 @@
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>75</v>
@@ -2514,15 +2516,15 @@
         <v>0</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>26</v>
@@ -2534,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
@@ -2574,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2628,7 +2630,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>63</v>
@@ -2641,12 +2643,12 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2659,15 +2661,15 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -2686,66 +2688,66 @@
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="6">
         <v>100</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="21"/>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -2771,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2789,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2862,7 +2864,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>91</v>
@@ -2881,7 +2883,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>91</v>
@@ -2935,7 +2937,7 @@
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -2953,10 +2955,10 @@
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
@@ -2971,7 +2973,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -2987,7 +2989,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
@@ -3010,7 +3012,7 @@
     </row>
     <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>91</v>
@@ -3029,20 +3031,20 @@
     </row>
     <row r="14" spans="1:7" ht="17.25">
       <c r="A14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25">
@@ -3164,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3182,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -3231,12 +3233,12 @@
         <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -3249,13 +3251,13 @@
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -3268,13 +3270,13 @@
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>91</v>
@@ -3287,13 +3289,13 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -3306,28 +3308,28 @@
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -3370,6 +3372,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3394,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -3443,12 +3446,12 @@
         <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -3461,13 +3464,13 @@
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -3480,13 +3483,13 @@
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>91</v>
@@ -3499,13 +3502,13 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>91</v>
@@ -3516,12 +3519,12 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>91</v>
@@ -3532,12 +3535,12 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>91</v>
@@ -3548,12 +3551,12 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -3564,10 +3567,10 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25">
@@ -3661,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -3746,7 +3749,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
@@ -3764,7 +3767,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>54</v>
@@ -3785,7 +3788,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>65</v>
@@ -3806,7 +3809,7 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
@@ -3824,12 +3827,12 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>91</v>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>91</v>
@@ -3865,20 +3868,20 @@
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25">
@@ -3921,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -3967,10 +3970,10 @@
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
@@ -3993,7 +3996,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -4014,13 +4017,13 @@
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="6">
         <v>50</v>
@@ -4030,18 +4033,18 @@
         <v>82</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" s="6">
         <v>50</v>
@@ -4054,13 +4057,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
@@ -4073,13 +4076,13 @@
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="6">
         <v>50</v>
@@ -4092,13 +4095,13 @@
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" s="6">
         <v>50</v>
@@ -4111,7 +4114,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>

--- a/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
+++ b/src/main/resources/Word/《寻主寻宠》数据库说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12810" tabRatio="852" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12810" tabRatio="852" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="发布" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="243">
   <si>
     <t>表名</t>
   </si>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1：已找到；2：未找到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1：寻宠；2：寻主</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -435,14 +431,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>发布状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：显示；2：隐藏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>自增长主键，认证编号</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -459,15 +447,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Not Null*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>寻主可不传</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK*</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -667,10 +647,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0：正常；1：隐藏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ShowState</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -866,39 +842,78 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>UserPetAlbum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册描述</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contraception</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadImgUrl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：正常；2：删除</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>1：是封面；2：不是封面</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>UserPetAlbum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册描述</t>
+    <t>1：正常；2：删除</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>权限</t>
+    <t>显示状态</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>1：公开；2：私密</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateTime</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contraception</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeadImgUrl</t>
+    <t>0：隐藏；1：正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>1：已找到；0：未找到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：显示；0：隐藏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：猫；3：狗；4：兔子；6：鼠</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1473,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="B7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1483,7 +1498,7 @@
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
@@ -1491,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -1527,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -1545,7 +1560,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1556,31 +1571,33 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
@@ -1600,6 +1617,9 @@
       <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="G6" s="30" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
@@ -1609,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -1619,7 +1639,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25">
@@ -1627,10 +1647,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
@@ -1640,7 +1660,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
@@ -1650,7 +1670,9 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="D9" s="6">
         <v>0</v>
       </c>
@@ -1658,13 +1680,16 @@
       <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
@@ -1677,13 +1702,13 @@
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D11" s="6">
         <v>50</v>
@@ -1696,7 +1721,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>26</v>
@@ -1717,7 +1742,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
@@ -1771,7 +1796,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>13</v>
@@ -1789,7 +1814,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>13</v>
@@ -1820,7 +1845,7 @@
     </row>
     <row r="19" spans="1:7" ht="17.25">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -1836,7 +1861,7 @@
     </row>
     <row r="20" spans="1:7" ht="17.25">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>26</v>
@@ -1852,7 +1877,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.25">
       <c r="A21" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>9</v>
@@ -1865,9 +1890,6 @@
       </c>
       <c r="F21" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25">
@@ -1883,13 +1905,19 @@
       <c r="D22" s="6">
         <v>0</v>
       </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
       <c r="F22" s="15" t="s">
         <v>46</v>
       </c>
+      <c r="G22" s="15" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="17.25">
       <c r="A23" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>9</v>
@@ -1923,41 +1951,43 @@
     </row>
     <row r="25" spans="1:7" ht="17.25">
       <c r="A25" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
       <c r="F25" s="15" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="18">
@@ -1981,7 +2011,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2000,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2049,12 +2079,12 @@
         <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2067,15 +2097,15 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -2085,15 +2115,15 @@
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -2103,15 +2133,15 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>64</v>
@@ -2121,36 +2151,36 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>64</v>
@@ -2159,32 +2189,32 @@
         <v>500</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>64</v>
@@ -2192,20 +2222,22 @@
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>64</v>
@@ -2213,17 +2245,19 @@
       <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>26</v>
@@ -2235,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25">
@@ -2285,7 +2319,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2302,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2356,46 +2390,46 @@
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D5" s="6">
         <v>50</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -2405,16 +2439,16 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>75</v>
@@ -2424,16 +2458,16 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>75</v>
@@ -2443,16 +2477,16 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>75</v>
@@ -2466,7 +2500,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
@@ -2478,15 +2512,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>75</v>
@@ -2494,20 +2528,22 @@
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>75</v>
@@ -2515,16 +2551,19 @@
       <c r="D12" s="6">
         <v>0</v>
       </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
       <c r="F12" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>26</v>
@@ -2536,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
@@ -2557,7 +2596,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2576,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2630,7 +2669,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>63</v>
@@ -2643,12 +2682,12 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2661,15 +2700,15 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -2688,66 +2727,80 @@
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6">
         <v>100</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="21"/>
+        <v>164</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -2773,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2791,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2845,7 +2898,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2864,10 +2917,10 @@
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>13</v>
@@ -2883,10 +2936,10 @@
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>13</v>
@@ -2937,7 +2990,7 @@
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -2955,10 +3008,10 @@
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
@@ -2973,7 +3026,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -2984,12 +3037,14 @@
       <c r="D11" s="19">
         <v>0</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
       <c r="F11" s="23" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
@@ -2997,7 +3052,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>13</v>
@@ -3012,10 +3067,10 @@
     </row>
     <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
@@ -3031,20 +3086,20 @@
     </row>
     <row r="14" spans="1:7" ht="17.25">
       <c r="A14" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25">
@@ -3167,7 +3222,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3184,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -3233,12 +3288,12 @@
         <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -3251,13 +3306,13 @@
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -3270,16 +3325,16 @@
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>13</v>
@@ -3289,13 +3344,13 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -3306,30 +3361,32 @@
       <c r="D7" s="19">
         <v>0</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
       <c r="F7" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -3380,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3397,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -3446,12 +3503,12 @@
         <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -3464,13 +3521,13 @@
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -3483,16 +3540,16 @@
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>70</v>
@@ -3502,16 +3559,16 @@
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="19">
@@ -3519,15 +3576,15 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="19">
@@ -3535,15 +3592,15 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="19">
@@ -3551,12 +3608,12 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -3565,31 +3622,57 @@
       <c r="D10" s="19">
         <v>0</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="30"/>
+      <c r="A11" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="30"/>
+      <c r="A12" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="4"/>
@@ -3664,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -3718,7 +3801,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -3736,7 +3819,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -3749,7 +3832,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
@@ -3767,7 +3850,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>54</v>
@@ -3788,7 +3871,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>65</v>
@@ -3809,7 +3892,7 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25">
@@ -3817,7 +3900,7 @@
         <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>64</v>
@@ -3827,15 +3910,15 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>64</v>
@@ -3850,10 +3933,10 @@
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>64</v>
@@ -3868,20 +3951,20 @@
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25">
@@ -3924,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -3970,15 +4053,15 @@
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -3996,7 +4079,7 @@
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -4009,112 +4092,112 @@
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D6" s="6">
         <v>50</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D7" s="6">
         <v>50</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D9" s="6">
         <v>50</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D10" s="6">
         <v>50</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -4125,10 +4208,10 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25">
@@ -4136,7 +4219,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
@@ -4144,7 +4227,7 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25">
